--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -380,28 +380,7 @@
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -422,12 +401,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -477,15 +450,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,9 +457,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,6 +497,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,230 +842,230 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
         <v>44702</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="8">
         <v>50000</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10">
         <v>44709</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="11">
         <v>50000</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="17">
+      <c r="B7" s="13"/>
+      <c r="C7" s="10">
         <v>44716</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>50000</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="17">
+      <c r="B8" s="73"/>
+      <c r="C8" s="10">
         <v>44725</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="11">
         <v>24555</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="22">
         <f>SUM(D5:D12)</f>
         <v>174555</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25">
         <v>-174555</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="26">
         <v>44702</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34">
+      <c r="B15" s="23"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25">
         <v>0</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="38"/>
-      <c r="D16" s="39">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="32">
         <f>D16+D13+D14+D15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="42"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="42"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="42"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="44"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="44"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="44"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1086,504 +1086,510 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="62">
+      <c r="A5" s="76"/>
+      <c r="B5" s="49">
         <v>45184</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="50">
         <v>100000</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="62">
+      <c r="A6" s="76"/>
+      <c r="B6" s="49">
         <v>45188</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="50">
         <v>100000</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="66"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="51">
+        <v>45194</v>
+      </c>
+      <c r="C7" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="66"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="53"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="66"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="66"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="70"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="71"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="71"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="71"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="71"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="71"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="71"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="71"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="71"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="71"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="71"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="71"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="71"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="71"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="71"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="71"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="71"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="71"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="71"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="72"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="72"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="59"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="73"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="72"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="72"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="72"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="72"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="72"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="72"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="72"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="72"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="72"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25">
         <v>-5792882.8200000003</v>
       </c>
-      <c r="D49" s="28"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="61"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="74"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="61"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="74"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="61"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="28"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="57">
+      <c r="A54" s="44">
         <f>C49+C50+C51+C52</f>
         <v>-5792882.8200000003</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="28"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="38"/>
-      <c r="C55" s="58">
+      <c r="B55" s="29"/>
+      <c r="C55" s="45">
         <v>0</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="62"/>
     </row>
     <row r="56" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-5592882.8200000003</v>
-      </c>
-      <c r="D56" s="76"/>
+        <v>-5492882.8200000003</v>
+      </c>
+      <c r="D56" s="63"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="76"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="63"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="60"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="74"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="61"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="74"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="61"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="60"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="74"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="61"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="76"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="63"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="42"/>
+      <c r="B63" s="33"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="77"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="64"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="77"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="64"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="77"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="64"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="77"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="64"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="78"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="65"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="78"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="65"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="78"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="65"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="78"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="65"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="78"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="65"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="77"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="64"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="77"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="64"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="77"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="64"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="77"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1159,9 +1159,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="51">
+        <v>45201</v>
+      </c>
+      <c r="C8" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
@@ -1404,7 +1410,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>300000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1461,7 +1467,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-5492882.8200000003</v>
+        <v>-5392882.8200000003</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -377,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -537,6 +537,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1085,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1171,21 +1176,39 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="51">
+        <v>45208</v>
+      </c>
+      <c r="C9" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="79">
+        <v>45215</v>
+      </c>
+      <c r="C10" s="80">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="53"/>
+      <c r="B11" s="79">
+        <v>45215</v>
+      </c>
+      <c r="C11" s="80">
+        <v>150000</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
@@ -1410,7 +1433,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>400000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1467,7 +1490,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-5392882.8200000003</v>
+        <v>-5042882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -498,6 +498,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,11 +542,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -847,23 +847,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="67"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="10">
         <v>44725</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="74"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="12"/>
@@ -1090,7 +1090,7 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1103,23 +1103,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="76"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="49">
         <v>45184</v>
       </c>
@@ -1139,7 +1139,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="49">
         <v>45188</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="51">
         <v>45194</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="51">
         <v>45201</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="51">
         <v>45208</v>
       </c>
@@ -1187,253 +1187,259 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="79">
+      <c r="A10" s="79"/>
+      <c r="B10" s="66">
         <v>45215</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="67">
         <v>100000</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="68" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="79">
+      <c r="A11" s="79"/>
+      <c r="B11" s="66">
         <v>45215</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="67">
         <v>150000</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="68" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="39">
+        <v>45222</v>
+      </c>
+      <c r="C12" s="16">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="52"/>
       <c r="C13" s="16"/>
       <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="51"/>
       <c r="C14" s="40"/>
       <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="51"/>
       <c r="C15" s="40"/>
       <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="51"/>
       <c r="C16" s="40"/>
       <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="51"/>
       <c r="C17" s="40"/>
       <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="51"/>
       <c r="C18" s="40"/>
       <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="51"/>
       <c r="C19" s="40"/>
       <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="51"/>
       <c r="C20" s="40"/>
       <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="51"/>
       <c r="C21" s="40"/>
       <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="51"/>
       <c r="C22" s="40"/>
       <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="51"/>
       <c r="C23" s="40"/>
       <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="51"/>
       <c r="C24" s="40"/>
       <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="51"/>
       <c r="C25" s="40"/>
       <c r="D25" s="58"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="51"/>
       <c r="C26" s="40"/>
       <c r="D26" s="58"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="51"/>
       <c r="C27" s="40"/>
       <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="51"/>
       <c r="C28" s="40"/>
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="51"/>
       <c r="C29" s="40"/>
       <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="51"/>
       <c r="C30" s="40"/>
       <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="51"/>
       <c r="C31" s="40"/>
       <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="51"/>
       <c r="C32" s="40"/>
       <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="51"/>
       <c r="C33" s="40"/>
       <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="51"/>
       <c r="C34" s="40"/>
       <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="38"/>
       <c r="C35" s="11"/>
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="38"/>
       <c r="C36" s="11"/>
       <c r="D36" s="59"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="38"/>
       <c r="C37" s="11"/>
       <c r="D37" s="60"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="38"/>
       <c r="C38" s="11"/>
       <c r="D38" s="59"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="38"/>
       <c r="C39" s="40"/>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="38"/>
       <c r="C40" s="40"/>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="38"/>
       <c r="C41" s="11"/>
       <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="38"/>
       <c r="C42" s="11"/>
       <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="38"/>
       <c r="C43" s="11"/>
       <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="38"/>
       <c r="C44" s="11"/>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="76"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="38"/>
       <c r="C45" s="11"/>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="76"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="38"/>
       <c r="C46" s="11"/>
       <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="38"/>
       <c r="C47" s="11"/>
       <c r="D47" s="59"/>
     </row>
     <row r="48" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>750000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1490,7 +1496,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-5042882.82</v>
+        <v>-4942882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1224,15 +1224,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="79"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="52">
+        <v>45230</v>
+      </c>
+      <c r="C13" s="16">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="79"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="51">
+        <v>45236</v>
+      </c>
+      <c r="C14" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
@@ -1439,7 +1451,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>850000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1496,7 +1508,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4942882.82</v>
+        <v>-4742882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1248,9 +1248,15 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="51">
+        <v>45243</v>
+      </c>
+      <c r="C15" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
@@ -1451,7 +1457,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1050000</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1508,7 +1514,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4742882.82</v>
+        <v>-4642882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1260,9 +1260,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="51">
+        <v>45250</v>
+      </c>
+      <c r="C16" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
@@ -1457,7 +1463,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1150000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1514,7 +1520,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4642882.82</v>
+        <v>-4542882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1272,9 +1272,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="51">
+        <v>45257</v>
+      </c>
+      <c r="C17" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
@@ -1463,7 +1469,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1250000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1520,7 +1526,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4542882.82</v>
+        <v>-4442882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="79"/>
-      <c r="B10" s="66">
+      <c r="B10" s="39">
         <v>45215</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="16">
         <v>100000</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1284,9 +1284,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="51">
+        <v>45264</v>
+      </c>
+      <c r="C18" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
@@ -1469,7 +1475,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1350000</v>
+        <v>1450000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1526,7 +1532,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4442882.82</v>
+        <v>-4342882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1296,9 +1296,15 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="51">
+        <v>45271</v>
+      </c>
+      <c r="C19" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
@@ -1475,7 +1481,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1450000</v>
+        <v>1550000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1532,7 +1538,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4342882.82</v>
+        <v>-4242882.82</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1308,9 +1308,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="51">
+        <v>45278</v>
+      </c>
+      <c r="C20" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1550000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1538,7 +1544,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4242882.82</v>
+        <v>-4142882.8200000003</v>
       </c>
       <c r="D56" s="63"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Efectivo</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA  Abastecedora de materiales del centro</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA Cementos y concretos la Cruz Azul</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1309,32 +1315,50 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
       <c r="B20" s="51">
-        <v>45278</v>
+        <v>45273</v>
       </c>
       <c r="C20" s="40">
-        <v>100000</v>
+        <v>11035</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="79"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="51">
+        <v>45273</v>
+      </c>
+      <c r="C21" s="40">
+        <v>46471.92</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="51">
+        <v>45278</v>
+      </c>
+      <c r="C22" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="79"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="51">
+        <v>45282</v>
+      </c>
+      <c r="C23" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
@@ -1487,7 +1511,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1650000</v>
+        <v>1807506.92</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1544,7 +1568,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-4142882.8200000003</v>
+        <v>-3985375.9000000004</v>
       </c>
       <c r="D56" s="63"/>
     </row>
@@ -1675,6 +1699,9 @@
       <c r="D80" s="64"/>
     </row>
   </sheetData>
+  <sortState ref="B20:D22">
+    <sortCondition ref="B20:B22"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A2:A48"/>
     <mergeCell ref="B2:C2"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ARQUI  REMODEL  11 SUR   2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -1096,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1362,9 +1362,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="51">
+        <v>45289</v>
+      </c>
+      <c r="C24" s="40">
+        <v>100000</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="79"/>
@@ -1511,7 +1517,7 @@
       </c>
       <c r="C48" s="42">
         <f>SUM(C5:C47)</f>
-        <v>1807506.92</v>
+        <v>1907506.92</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1568,7 +1574,7 @@
       </c>
       <c r="C56" s="46">
         <f>SUM(C48:C55)</f>
-        <v>-3985375.9000000004</v>
+        <v>-3885375.9000000004</v>
       </c>
       <c r="D56" s="63"/>
     </row>
